--- a/xlsx_files/Group 2 Preparatory.xlsx
+++ b/xlsx_files/Group 2 Preparatory.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -108,11 +138,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,28 +585,32 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
-Roza Kazakbaeva
-Red classroom
-09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>PRECALCULUS
-Kiran Bhimani
-Red classroom
-09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
-Roza Kazakbaeva
-Red classroom
-09:00-10:30</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+09:00-10:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+09:00-10:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Precalculus
+09:00-10:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+09:00-10:30
+room:White classroom: 202</t>
         </is>
       </c>
     </row>
@@ -574,9 +620,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="C7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -584,9 +631,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -594,9 +642,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -604,9 +653,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="C10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
-      <c r="F10" s="6" t="n"/>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -614,9 +664,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="C11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -640,26 +691,23 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
-Roza Kazakbaeva
-Red classroom
-11:00-12:30</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
-Roza Kazakbaeva
-Red classroom
-11:00-12:30</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
-Roza Kazakbaeva
-Red classroom
-11:00-12:30</t>
+          <t>Precalculus
+11:00-12:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+11:00-12:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
+11:00-12:30
+room:Red classroom: 201</t>
         </is>
       </c>
     </row>
@@ -669,9 +717,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="F15" s="6" t="n"/>
+      <c r="B15" s="8" t="n"/>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -679,9 +727,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -689,9 +737,9 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="F17" s="6" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="E17" s="8" t="n"/>
+      <c r="F17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -699,9 +747,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="F18" s="6" t="n"/>
+      <c r="B18" s="8" t="n"/>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -709,9 +757,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
+      <c r="B19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -817,6 +865,34 @@
           <t>16:00</t>
         </is>
       </c>
+      <c r="B34" s="11" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="C34" s="11" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>Precalculus
+16:00-17:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -824,6 +900,10 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="B35" s="8" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="D35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -831,6 +911,10 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B36" s="8" t="n"/>
+      <c r="C36" s="8" t="n"/>
+      <c r="D36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -838,6 +922,10 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="B37" s="8" t="n"/>
+      <c r="C37" s="8" t="n"/>
+      <c r="D37" s="8" t="n"/>
+      <c r="E37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -845,6 +933,10 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B38" s="8" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -852,6 +944,10 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+      <c r="D39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1043,18 +1139,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F6:F11"/>
+  <mergeCells count="18">
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="E14:E19"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="E6:E11"/>
-    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D6:D11"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>

--- a/xlsx_files/Group 2 Preparatory.xlsx
+++ b/xlsx_files/Group 2 Preparatory.xlsx
@@ -144,12 +144,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -592,27 +592,27 @@
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Precalculus
+09:00-10:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 09:00-10:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Precalculus
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
 09:00-10:30
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-09:00-10:30
-room:White classroom: 202</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -620,10 +620,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -631,10 +631,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -642,10 +642,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -653,10 +653,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -664,10 +664,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="9" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -691,19 +691,26 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>Precalculus
+          <t>Academic Writing: Research, Fiction and Nonfiction
 11:00-12:30
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 11:00-12:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+11:00-12:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 11:00-12:30
@@ -717,9 +724,10 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -727,9 +735,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -737,9 +746,10 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -747,9 +757,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -757,9 +768,10 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
+      <c r="B19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -809,6 +821,20 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Precalculus
+14:00-15:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>Precalculus
+14:00-15:30
+room:White classroom: 202</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -816,6 +842,8 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="B27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -823,6 +851,8 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -830,6 +860,8 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="B29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -837,6 +869,8 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="B30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -844,6 +878,8 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="B31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -865,32 +901,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
+      <c r="D34" s="11" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="D34" s="11" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-16:00-17:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="E34" s="11" t="inlineStr">
-        <is>
-          <t>Precalculus
-16:00-17:30
-room:Grey classroom: 203</t>
+room:Red classroom: 201</t>
         </is>
       </c>
     </row>
@@ -900,10 +922,8 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="8" t="n"/>
-      <c r="C35" s="8" t="n"/>
-      <c r="D35" s="8" t="n"/>
-      <c r="E35" s="8" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -911,10 +931,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="8" t="n"/>
-      <c r="C36" s="8" t="n"/>
-      <c r="D36" s="8" t="n"/>
-      <c r="E36" s="8" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -922,10 +940,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="8" t="n"/>
-      <c r="C37" s="8" t="n"/>
-      <c r="D37" s="8" t="n"/>
-      <c r="E37" s="8" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -933,10 +949,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="8" t="n"/>
-      <c r="C38" s="8" t="n"/>
-      <c r="D38" s="8" t="n"/>
-      <c r="E38" s="8" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -944,10 +958,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1139,24 +1151,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="C3:C4"/>
+  <mergeCells count="19">
+    <mergeCell ref="B26:B31"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="B34:B39"/>
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E34:E39"/>
     <mergeCell ref="B14:B19"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="D14:D19"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/Group 2 Preparatory.xlsx
+++ b/xlsx_files/Group 2 Preparatory.xlsx
@@ -144,12 +144,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -592,25 +592,25 @@
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+09:00-10:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Precalculus
 09:00-10:30
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-09:00-10:30
-room:Green classroom: 204</t>
+room:White classroom: 202</t>
         </is>
       </c>
     </row>
@@ -620,10 +620,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -631,10 +631,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -642,10 +642,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -653,10 +653,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -664,10 +664,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -689,28 +689,21 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-11:00-12:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Precalculus
 11:00-12:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Precalculus
 11:00-12:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 11:00-12:30
@@ -724,10 +717,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
+      <c r="B15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -735,10 +727,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -746,10 +737,9 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
+      <c r="F17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -757,10 +747,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
+      <c r="B18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="F18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -768,10 +757,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="B19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -821,16 +809,16 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Precalculus
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Precalculus
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:30
 room:White classroom: 202</t>
         </is>
@@ -842,8 +830,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="E27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -851,8 +839,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="E28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -860,8 +848,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -869,8 +857,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="E30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -878,8 +866,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
+      <c r="C31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -901,18 +889,25 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="D34" s="11" t="inlineStr">
+      <c r="B34" s="11" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="E34" s="9" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
-room:Red classroom: 201</t>
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:30
+room:White classroom: 202</t>
         </is>
       </c>
     </row>
@@ -922,8 +917,9 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
+      <c r="B35" s="8" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -931,8 +927,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
+      <c r="B36" s="8" t="n"/>
+      <c r="C36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -940,8 +937,9 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
+      <c r="B37" s="8" t="n"/>
+      <c r="C37" s="8" t="n"/>
+      <c r="E37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -949,8 +947,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
+      <c r="B38" s="8" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -958,8 +957,9 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="D39" s="8" t="n"/>
-      <c r="E39" s="8" t="n"/>
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1152,19 +1152,19 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C34:C39"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D34:D39"/>
     <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="C26:C31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E34:E39"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="E6:E11"/>
+    <mergeCell ref="B34:B39"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>

--- a/xlsx_files/Group 2 Preparatory.xlsx
+++ b/xlsx_files/Group 2 Preparatory.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -64,12 +64,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00D0CECE"/>
         <bgColor rgb="00D0CECE"/>
       </patternFill>
@@ -78,12 +72,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="0092D050"/>
         <bgColor rgb="0092D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -138,21 +126,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,9 +576,9 @@
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
+          <t>Scientific Inquiry: Beyond the Visible
 09:00-10:30
-room:Yellow classroom: 209</t>
+room:Red classroom: 201</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -606,11 +588,11 @@
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 09:00-10:30
-room:White classroom: 202</t>
+room:Green classroom: 204</t>
         </is>
       </c>
     </row>
@@ -620,10 +602,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -631,10 +613,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -642,10 +624,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -653,10 +635,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -664,10 +646,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="9" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -689,21 +671,28 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+11:00-12:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+11:00-12:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Precalculus
 11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Precalculus
-11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 11:00-12:30
@@ -717,9 +706,10 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -727,9 +717,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -737,9 +728,10 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n"/>
-      <c r="D17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -747,9 +739,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -757,9 +750,10 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -809,18 +803,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="E26" s="7" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Precalculus
+14:00-15:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:30
-room:White classroom: 202</t>
+room:Grey classroom: 203</t>
         </is>
       </c>
     </row>
@@ -830,8 +831,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="C27" s="8" t="n"/>
-      <c r="E27" s="8" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -839,8 +841,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C28" s="8" t="n"/>
-      <c r="E28" s="8" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -848,8 +851,9 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="C29" s="8" t="n"/>
-      <c r="E29" s="8" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -857,8 +861,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C30" s="8" t="n"/>
-      <c r="E30" s="8" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -866,8 +871,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="C31" s="9" t="n"/>
-      <c r="E31" s="9" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -889,27 +895,20 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-16:00-17:30
-room:White classroom: 202</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -917,9 +916,8 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="8" t="n"/>
-      <c r="C35" s="8" t="n"/>
-      <c r="E35" s="8" t="n"/>
+      <c r="B35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -927,9 +925,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="8" t="n"/>
-      <c r="C36" s="8" t="n"/>
-      <c r="E36" s="8" t="n"/>
+      <c r="B36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -937,9 +934,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="8" t="n"/>
-      <c r="C37" s="8" t="n"/>
-      <c r="E37" s="8" t="n"/>
+      <c r="B37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -947,9 +943,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="8" t="n"/>
-      <c r="C38" s="8" t="n"/>
-      <c r="E38" s="8" t="n"/>
+      <c r="B38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -957,9 +952,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
+      <c r="B39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1151,13 +1145,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C34:C39"/>
+  <mergeCells count="20">
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D11"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>

--- a/xlsx_files/Group 2 Preparatory.xlsx
+++ b/xlsx_files/Group 2 Preparatory.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8CBAD"/>
+        <bgColor rgb="00F8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,8 +88,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,12 +147,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,32 +585,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-09:00-10:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Scientific Inquiry: Beyond the Visible
-09:00-10:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Precalculus
-09:00-10:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-09:00-10:30
-room:Green classroom: 204</t>
+09:00-10:45
+room:204</t>
         </is>
       </c>
     </row>
@@ -602,10 +599,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -613,10 +607,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -624,10 +615,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -635,10 +623,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -646,10 +631,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -657,6 +639,7 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="F12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -671,32 +654,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-11:00-12:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="inlineStr">
+11:00-12:45
+room:201</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-11:00-12:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Precalculus
-11:00-12:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
+11:00-12:45
+room:104</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 11:00-12:30
-room:Red classroom: 201</t>
+room:104</t>
         </is>
       </c>
     </row>
@@ -706,10 +682,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -717,10 +692,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -728,10 +702,9 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -739,10 +712,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -750,10 +722,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="F19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -761,6 +732,8 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -803,25 +776,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-14:00-15:30
-room:Grey classroom: 203</t>
+14:00-15:45
+room:202</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Precalculus
-14:00-15:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
+14:00-16:00
+room:204</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-14:00-15:30
-room:Grey classroom: 203</t>
+14:00-15:45
+room:204</t>
         </is>
       </c>
     </row>
@@ -831,9 +804,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -841,9 +814,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -851,9 +824,9 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -861,9 +834,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -871,9 +844,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="F31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -881,6 +854,9 @@
           <t>15:30</t>
         </is>
       </c>
+      <c r="B32" s="7" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="F32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -888,6 +864,7 @@
           <t>15:45</t>
         </is>
       </c>
+      <c r="D33" s="7" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -898,15 +875,22 @@
       <c r="B34" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-16:00-17:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
+16:00-17:45
+room:202</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="inlineStr">
+        <is>
+          <t>Precalculus
+16:00-18:00
+room:201</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-16:00-17:30
-room:Grey classroom: 203</t>
+16:00-17:45
+room:202</t>
         </is>
       </c>
     </row>
@@ -916,8 +900,9 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -925,8 +910,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -934,8 +920,9 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
+      <c r="F37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -943,8 +930,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="F38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -952,8 +940,9 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="8" t="n"/>
-      <c r="E39" s="8" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="D39" s="6" t="n"/>
+      <c r="F39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -961,6 +950,9 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="B40" s="7" t="n"/>
+      <c r="D40" s="6" t="n"/>
+      <c r="F40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -968,6 +960,7 @@
           <t>17:45</t>
         </is>
       </c>
+      <c r="D41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -975,6 +968,7 @@
           <t>18:00</t>
         </is>
       </c>
+      <c r="D42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -982,6 +976,7 @@
           <t>18:15</t>
         </is>
       </c>
+      <c r="D43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -989,6 +984,7 @@
           <t>18:30</t>
         </is>
       </c>
+      <c r="D44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -996,6 +992,7 @@
           <t>18:45</t>
         </is>
       </c>
+      <c r="D45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -1145,27 +1142,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D26:D31"/>
+  <mergeCells count="19">
+    <mergeCell ref="F26:F32"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D26:D33"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="D14:D20"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="D34:D45"/>
+    <mergeCell ref="B26:B32"/>
     <mergeCell ref="B34:B39"/>
-    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="F6:F12"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="D14:D19"/>
     <mergeCell ref="F14:F19"/>
+    <mergeCell ref="B14:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/Group 2 Preparatory.xlsx
+++ b/xlsx_files/Group 2 Preparatory.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -58,20 +58,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8CBAD"/>
-        <bgColor rgb="00F8CBAD"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -84,12 +84,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D0CECE"/>
         <bgColor rgb="00D0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -144,15 +138,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,7 +583,7 @@
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 09:00-10:45
-room:204</t>
+room:209</t>
         </is>
       </c>
     </row>
@@ -656,25 +650,32 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-11:00-12:45
-room:201</t>
-        </is>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-11:00-12:45
-room:104</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
+          <t>Scientific Inquiry: Beyond the Visible
+11:00-12:30
+room:204</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Precalculus
+11:00-13:00
+room:204</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 11:00-12:30
 room:104</t>
         </is>
       </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Precalculus
+11:00-13:00
+room:202</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -684,6 +685,7 @@
       </c>
       <c r="B15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
@@ -694,6 +696,7 @@
       </c>
       <c r="B16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
@@ -704,6 +707,7 @@
       </c>
       <c r="B17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
@@ -714,6 +718,7 @@
       </c>
       <c r="B18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
@@ -722,9 +727,10 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="6" t="n"/>
+      <c r="B19" s="7" t="n"/>
       <c r="D19" s="6" t="n"/>
-      <c r="F19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -732,8 +738,10 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -741,6 +749,9 @@
           <t>12:45</t>
         </is>
       </c>
+      <c r="B21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -776,27 +787,20 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-14:00-15:45
-room:202</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Precalculus
-14:00-16:00
-room:204</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:45
 room:204</t>
         </is>
       </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
+14:00-17:00
+room:-14</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -805,7 +809,6 @@
         </is>
       </c>
       <c r="B27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
@@ -815,7 +818,6 @@
         </is>
       </c>
       <c r="B28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
@@ -825,7 +827,6 @@
         </is>
       </c>
       <c r="B29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
       <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
@@ -835,7 +836,6 @@
         </is>
       </c>
       <c r="B30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
       <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
@@ -845,7 +845,6 @@
         </is>
       </c>
       <c r="B31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
       <c r="F31" s="6" t="n"/>
     </row>
     <row r="32">
@@ -855,8 +854,7 @@
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="F32" s="7" t="n"/>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -864,7 +862,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="D33" s="7" t="n"/>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -872,27 +870,35 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:45
+room:204</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
+16:00-17:30
 room:202</t>
         </is>
       </c>
-      <c r="D34" s="8" t="inlineStr">
-        <is>
-          <t>Precalculus
-16:00-18:00
-room:201</t>
-        </is>
-      </c>
-      <c r="F34" s="9" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:45
-room:202</t>
-        </is>
-      </c>
+room:209</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:45
+room:209</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -901,7 +907,9 @@
         </is>
       </c>
       <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
       <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
@@ -911,7 +919,9 @@
         </is>
       </c>
       <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
       <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
@@ -921,8 +931,10 @@
         </is>
       </c>
       <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
       <c r="D37" s="6" t="n"/>
-      <c r="F37" s="6" t="n"/>
+      <c r="E37" s="6" t="n"/>
+      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -931,8 +943,9 @@
         </is>
       </c>
       <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
       <c r="D38" s="6" t="n"/>
-      <c r="F38" s="6" t="n"/>
+      <c r="E38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -941,8 +954,9 @@
         </is>
       </c>
       <c r="B39" s="6" t="n"/>
+      <c r="C39" s="7" t="n"/>
       <c r="D39" s="6" t="n"/>
-      <c r="F39" s="6" t="n"/>
+      <c r="E39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -951,8 +965,9 @@
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
-      <c r="D40" s="6" t="n"/>
-      <c r="F40" s="7" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -960,7 +975,6 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="D41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -968,7 +982,6 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="D42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -976,7 +989,6 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="D43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -984,7 +996,6 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="D44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -992,7 +1003,6 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="D45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -1142,26 +1152,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="F26:F32"/>
+  <mergeCells count="18">
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="F26:F37"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B34:B40"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D34:D45"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="F34:F40"/>
     <mergeCell ref="F6:F12"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E14:E20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
